--- a/Team-Data/2008-09/2-6-2008-09.xlsx
+++ b/Team-Data/2008-09/2-6-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,28 +733,28 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" t="n">
         <v>20</v>
       </c>
       <c r="G2" t="n">
-        <v>0.592</v>
+        <v>0.583</v>
       </c>
       <c r="H2" t="n">
         <v>48.1</v>
       </c>
       <c r="I2" t="n">
-        <v>35.8</v>
+        <v>35.9</v>
       </c>
       <c r="J2" t="n">
-        <v>78.5</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>0.456</v>
+        <v>0.457</v>
       </c>
       <c r="L2" t="n">
         <v>7.8</v>
@@ -696,16 +763,16 @@
         <v>21.1</v>
       </c>
       <c r="N2" t="n">
-        <v>0.371</v>
+        <v>0.368</v>
       </c>
       <c r="O2" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="P2" t="n">
-        <v>25.9</v>
+        <v>25.7</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.74</v>
+        <v>0.739</v>
       </c>
       <c r="R2" t="n">
         <v>10.5</v>
@@ -717,16 +784,16 @@
         <v>40.1</v>
       </c>
       <c r="U2" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="V2" t="n">
         <v>13.2</v>
       </c>
       <c r="W2" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X2" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y2" t="n">
         <v>4.4</v>
@@ -735,34 +802,34 @@
         <v>20.2</v>
       </c>
       <c r="AA2" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.7</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AC2" t="n">
         <v>1.9</v>
       </c>
       <c r="AD2" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AE2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF2" t="n">
         <v>9</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI2" t="n">
         <v>23</v>
       </c>
       <c r="AJ2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK2" t="n">
         <v>13</v>
@@ -774,13 +841,13 @@
         <v>3</v>
       </c>
       <c r="AN2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO2" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AP2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AQ2" t="n">
         <v>29</v>
@@ -789,19 +856,19 @@
         <v>22</v>
       </c>
       <c r="AS2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT2" t="n">
         <v>23</v>
       </c>
       <c r="AU2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV2" t="n">
         <v>7</v>
       </c>
       <c r="AW2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX2" t="n">
         <v>19</v>
@@ -810,10 +877,10 @@
         <v>10</v>
       </c>
       <c r="AZ2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB2" t="n">
         <v>16</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-6-2008-09</t>
+          <t>2009-02-06</t>
         </is>
       </c>
     </row>
@@ -863,67 +930,67 @@
         <v>48.5</v>
       </c>
       <c r="I3" t="n">
-        <v>37.5</v>
+        <v>37.3</v>
       </c>
       <c r="J3" t="n">
         <v>77.3</v>
       </c>
       <c r="K3" t="n">
-        <v>0.484</v>
+        <v>0.483</v>
       </c>
       <c r="L3" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M3" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="N3" t="n">
-        <v>0.393</v>
+        <v>0.389</v>
       </c>
       <c r="O3" t="n">
         <v>20.3</v>
       </c>
       <c r="P3" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.777</v>
+        <v>0.773</v>
       </c>
       <c r="R3" t="n">
         <v>10.9</v>
       </c>
       <c r="S3" t="n">
-        <v>32.1</v>
+        <v>31.7</v>
       </c>
       <c r="T3" t="n">
-        <v>43</v>
+        <v>42.7</v>
       </c>
       <c r="U3" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="V3" t="n">
         <v>15.8</v>
       </c>
       <c r="W3" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="X3" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="AA3" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.9</v>
+        <v>101.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AD3" t="n">
         <v>2</v>
@@ -950,13 +1017,13 @@
         <v>2</v>
       </c>
       <c r="AL3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AN3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO3" t="n">
         <v>7</v>
@@ -965,22 +1032,22 @@
         <v>7</v>
       </c>
       <c r="AQ3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AT3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AU3" t="n">
         <v>5</v>
       </c>
-      <c r="AU3" t="n">
-        <v>4</v>
-      </c>
       <c r="AV3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW3" t="n">
         <v>3</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-6-2008-09</t>
+          <t>2009-02-06</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" t="n">
         <v>19</v>
       </c>
       <c r="F4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" t="n">
-        <v>0.388</v>
+        <v>0.396</v>
       </c>
       <c r="H4" t="n">
         <v>48.7</v>
@@ -1057,19 +1124,19 @@
         <v>5.5</v>
       </c>
       <c r="M4" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0.358</v>
+        <v>0.359</v>
       </c>
       <c r="O4" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="P4" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.743</v>
+        <v>0.741</v>
       </c>
       <c r="R4" t="n">
         <v>10.6</v>
@@ -1078,13 +1145,13 @@
         <v>28.4</v>
       </c>
       <c r="T4" t="n">
-        <v>39.1</v>
+        <v>39</v>
       </c>
       <c r="U4" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V4" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="W4" t="n">
         <v>7.1</v>
@@ -1093,34 +1160,34 @@
         <v>4.7</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="AA4" t="n">
         <v>21.3</v>
       </c>
       <c r="AB4" t="n">
-        <v>91.90000000000001</v>
+        <v>91.8</v>
       </c>
       <c r="AC4" t="n">
         <v>-2.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AE4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
         <v>21</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI4" t="n">
         <v>30</v>
@@ -1138,16 +1205,16 @@
         <v>25</v>
       </c>
       <c r="AN4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP4" t="n">
         <v>18</v>
       </c>
       <c r="AQ4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AR4" t="n">
         <v>18</v>
@@ -1159,13 +1226,13 @@
         <v>26</v>
       </c>
       <c r="AU4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV4" t="n">
         <v>25</v>
       </c>
       <c r="AW4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX4" t="n">
         <v>18</v>
@@ -1174,7 +1241,7 @@
         <v>29</v>
       </c>
       <c r="AZ4" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BA4" t="n">
         <v>13</v>
@@ -1183,7 +1250,7 @@
         <v>30</v>
       </c>
       <c r="BC4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-6-2008-09</t>
+          <t>2009-02-06</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" t="n">
         <v>28</v>
       </c>
       <c r="G5" t="n">
-        <v>0.429</v>
+        <v>0.44</v>
       </c>
       <c r="H5" t="n">
         <v>48.6</v>
@@ -1230,43 +1297,43 @@
         <v>37.7</v>
       </c>
       <c r="J5" t="n">
-        <v>84.09999999999999</v>
+        <v>83.8</v>
       </c>
       <c r="K5" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L5" t="n">
         <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="N5" t="n">
-        <v>0.371</v>
+        <v>0.372</v>
       </c>
       <c r="O5" t="n">
-        <v>18.4</v>
+        <v>18.7</v>
       </c>
       <c r="P5" t="n">
-        <v>23.4</v>
+        <v>23.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.785</v>
+        <v>0.783</v>
       </c>
       <c r="R5" t="n">
         <v>11.9</v>
       </c>
       <c r="S5" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="T5" t="n">
         <v>42.2</v>
       </c>
       <c r="U5" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="V5" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W5" t="n">
         <v>7.4</v>
@@ -1278,19 +1345,19 @@
         <v>5.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="AB5" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.2</v>
+        <v>-1.9</v>
       </c>
       <c r="AD5" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="AE5" t="n">
         <v>19</v>
@@ -1302,31 +1369,31 @@
         <v>19</v>
       </c>
       <c r="AH5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI5" t="n">
         <v>8</v>
       </c>
       <c r="AJ5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL5" t="n">
         <v>20</v>
       </c>
       <c r="AM5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AP5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ5" t="n">
         <v>9</v>
@@ -1341,10 +1408,10 @@
         <v>12</v>
       </c>
       <c r="AU5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW5" t="n">
         <v>13</v>
@@ -1353,19 +1420,19 @@
         <v>4</v>
       </c>
       <c r="AY5" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AZ5" t="n">
         <v>22</v>
       </c>
       <c r="BA5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB5" t="n">
         <v>12</v>
       </c>
       <c r="BC5" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-6-2008-09</t>
+          <t>2009-02-06</t>
         </is>
       </c>
     </row>
@@ -1394,49 +1461,49 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E6" t="n">
         <v>39</v>
       </c>
       <c r="F6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G6" t="n">
-        <v>0.83</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="H6" t="n">
         <v>48.1</v>
       </c>
       <c r="I6" t="n">
-        <v>37.3</v>
+        <v>37.1</v>
       </c>
       <c r="J6" t="n">
-        <v>78.40000000000001</v>
+        <v>78.2</v>
       </c>
       <c r="K6" t="n">
-        <v>0.476</v>
+        <v>0.475</v>
       </c>
       <c r="L6" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="M6" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="N6" t="n">
-        <v>0.383</v>
+        <v>0.381</v>
       </c>
       <c r="O6" t="n">
-        <v>18.7</v>
+        <v>18.9</v>
       </c>
       <c r="P6" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.755</v>
+        <v>0.754</v>
       </c>
       <c r="R6" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="S6" t="n">
         <v>31.1</v>
@@ -1445,52 +1512,52 @@
         <v>41.7</v>
       </c>
       <c r="U6" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="V6" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="W6" t="n">
         <v>7.6</v>
       </c>
       <c r="X6" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Y6" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB6" t="n">
-        <v>101.4</v>
+        <v>101</v>
       </c>
       <c r="AC6" t="n">
-        <v>10.6</v>
+        <v>10.3</v>
       </c>
       <c r="AD6" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="AE6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF6" t="n">
         <v>1</v>
       </c>
       <c r="AG6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH6" t="n">
         <v>24</v>
       </c>
       <c r="AI6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK6" t="n">
         <v>5</v>
@@ -1502,19 +1569,19 @@
         <v>5</v>
       </c>
       <c r="AN6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO6" t="n">
         <v>19</v>
       </c>
       <c r="AP6" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AQ6" t="n">
         <v>23</v>
       </c>
       <c r="AR6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AS6" t="n">
         <v>10</v>
@@ -1526,19 +1593,19 @@
         <v>18</v>
       </c>
       <c r="AV6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY6" t="n">
         <v>4</v>
       </c>
-      <c r="AW6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>5</v>
-      </c>
       <c r="AZ6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA6" t="n">
         <v>21</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-6-2008-09</t>
+          <t>2009-02-06</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>1</v>
       </c>
       <c r="AD7" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
         <v>9</v>
@@ -1666,7 +1733,7 @@
         <v>10</v>
       </c>
       <c r="AH7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI7" t="n">
         <v>6</v>
@@ -1699,10 +1766,10 @@
         <v>13</v>
       </c>
       <c r="AS7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-6-2008-09</t>
+          <t>2009-02-06</t>
         </is>
       </c>
     </row>
@@ -1758,46 +1825,46 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8" t="n">
         <v>16</v>
       </c>
       <c r="G8" t="n">
-        <v>0.68</v>
+        <v>0.673</v>
       </c>
       <c r="H8" t="n">
         <v>48.2</v>
       </c>
       <c r="I8" t="n">
-        <v>37.3</v>
+        <v>37.1</v>
       </c>
       <c r="J8" t="n">
-        <v>78.7</v>
+        <v>78.5</v>
       </c>
       <c r="K8" t="n">
-        <v>0.474</v>
+        <v>0.472</v>
       </c>
       <c r="L8" t="n">
         <v>6.6</v>
       </c>
       <c r="M8" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="N8" t="n">
-        <v>0.373</v>
+        <v>0.371</v>
       </c>
       <c r="O8" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="P8" t="n">
-        <v>30.9</v>
+        <v>31.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.758</v>
+        <v>0.757</v>
       </c>
       <c r="R8" t="n">
         <v>10.6</v>
@@ -1806,13 +1873,13 @@
         <v>30.7</v>
       </c>
       <c r="T8" t="n">
-        <v>41.3</v>
+        <v>41.2</v>
       </c>
       <c r="U8" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="V8" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="W8" t="n">
         <v>9.1</v>
@@ -1821,22 +1888,22 @@
         <v>5.9</v>
       </c>
       <c r="Y8" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z8" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="AB8" t="n">
-        <v>104.7</v>
+        <v>104.3</v>
       </c>
       <c r="AC8" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AE8" t="n">
         <v>5</v>
@@ -1851,22 +1918,22 @@
         <v>23</v>
       </c>
       <c r="AI8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ8" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AK8" t="n">
         <v>6</v>
       </c>
       <c r="AL8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM8" t="n">
         <v>16</v>
       </c>
       <c r="AN8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1887,7 +1954,7 @@
         <v>16</v>
       </c>
       <c r="AU8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV8" t="n">
         <v>26</v>
@@ -1899,16 +1966,16 @@
         <v>3</v>
       </c>
       <c r="AY8" t="n">
+        <v>27</v>
+      </c>
+      <c r="AZ8" t="n">
         <v>25</v>
       </c>
-      <c r="AZ8" t="n">
-        <v>24</v>
-      </c>
       <c r="BA8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BB8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC8" t="n">
         <v>5</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-6-2008-09</t>
+          <t>2009-02-06</t>
         </is>
       </c>
     </row>
@@ -2021,13 +2088,13 @@
         <v>28</v>
       </c>
       <c r="AE9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF9" t="n">
         <v>12</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH9" t="n">
         <v>15</v>
@@ -2036,7 +2103,7 @@
         <v>24</v>
       </c>
       <c r="AJ9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK9" t="n">
         <v>15</v>
@@ -2054,13 +2121,13 @@
         <v>28</v>
       </c>
       <c r="AP9" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AQ9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AR9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AS9" t="n">
         <v>17</v>
@@ -2069,7 +2136,7 @@
         <v>21</v>
       </c>
       <c r="AU9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV9" t="n">
         <v>1</v>
@@ -2078,16 +2145,16 @@
         <v>27</v>
       </c>
       <c r="AX9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB9" t="n">
         <v>29</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-6-2008-09</t>
+          <t>2009-02-06</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
       </c>
       <c r="F10" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10" t="n">
-        <v>0.314</v>
+        <v>0.32</v>
       </c>
       <c r="H10" t="n">
         <v>48.7</v>
@@ -2146,13 +2213,13 @@
         <v>0.452</v>
       </c>
       <c r="L10" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="M10" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="N10" t="n">
-        <v>0.364</v>
+        <v>0.366</v>
       </c>
       <c r="O10" t="n">
         <v>22.3</v>
@@ -2161,7 +2228,7 @@
         <v>28.9</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.771</v>
+        <v>0.77</v>
       </c>
       <c r="R10" t="n">
         <v>12</v>
@@ -2173,22 +2240,22 @@
         <v>42.4</v>
       </c>
       <c r="U10" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="V10" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="W10" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="X10" t="n">
         <v>6.6</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z10" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AA10" t="n">
         <v>23.7</v>
@@ -2197,10 +2264,10 @@
         <v>106.7</v>
       </c>
       <c r="AC10" t="n">
-        <v>-4.6</v>
+        <v>-4.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE10" t="n">
         <v>25</v>
@@ -2215,10 +2282,10 @@
         <v>4</v>
       </c>
       <c r="AI10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>2</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>3</v>
       </c>
       <c r="AK10" t="n">
         <v>16</v>
@@ -2239,7 +2306,7 @@
         <v>2</v>
       </c>
       <c r="AQ10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR10" t="n">
         <v>7</v>
@@ -2251,10 +2318,10 @@
         <v>10</v>
       </c>
       <c r="AU10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW10" t="n">
         <v>7</v>
@@ -2269,7 +2336,7 @@
         <v>21</v>
       </c>
       <c r="BA10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB10" t="n">
         <v>2</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-6-2008-09</t>
+          <t>2009-02-06</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>2.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AE11" t="n">
         <v>7</v>
@@ -2400,7 +2467,7 @@
         <v>26</v>
       </c>
       <c r="AJ11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK11" t="n">
         <v>24</v>
@@ -2421,7 +2488,7 @@
         <v>19</v>
       </c>
       <c r="AQ11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR11" t="n">
         <v>17</v>
@@ -2430,7 +2497,7 @@
         <v>3</v>
       </c>
       <c r="AT11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU11" t="n">
         <v>20</v>
@@ -2439,10 +2506,10 @@
         <v>14</v>
       </c>
       <c r="AW11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX11" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AY11" t="n">
         <v>28</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-6-2008-09</t>
+          <t>2009-02-06</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F12" t="n">
         <v>31</v>
       </c>
       <c r="G12" t="n">
-        <v>0.392</v>
+        <v>0.38</v>
       </c>
       <c r="H12" t="n">
         <v>48.6</v>
@@ -2504,7 +2571,7 @@
         <v>38.9</v>
       </c>
       <c r="J12" t="n">
-        <v>86.2</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="K12" t="n">
         <v>0.451</v>
@@ -2519,52 +2586,52 @@
         <v>0.368</v>
       </c>
       <c r="O12" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="P12" t="n">
-        <v>23.8</v>
+        <v>23.6</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.8070000000000001</v>
+        <v>0.805</v>
       </c>
       <c r="R12" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="S12" t="n">
-        <v>32.3</v>
+        <v>32.2</v>
       </c>
       <c r="T12" t="n">
-        <v>43.4</v>
+        <v>43.5</v>
       </c>
       <c r="U12" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="V12" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W12" t="n">
         <v>7</v>
       </c>
       <c r="X12" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Y12" t="n">
         <v>5.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="AA12" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AB12" t="n">
-        <v>104.7</v>
+        <v>104.6</v>
       </c>
       <c r="AC12" t="n">
-        <v>-2.2</v>
+        <v>-2.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE12" t="n">
         <v>21</v>
@@ -2573,19 +2640,19 @@
         <v>22</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ12" t="n">
         <v>1</v>
       </c>
       <c r="AK12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL12" t="n">
         <v>7</v>
@@ -2594,16 +2661,16 @@
         <v>4</v>
       </c>
       <c r="AN12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AR12" t="n">
         <v>12</v>
@@ -2615,10 +2682,10 @@
         <v>2</v>
       </c>
       <c r="AU12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW12" t="n">
         <v>19</v>
@@ -2630,16 +2697,16 @@
         <v>24</v>
       </c>
       <c r="AZ12" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA12" t="n">
         <v>12</v>
       </c>
       <c r="BB12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC12" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-6-2008-09</t>
+          <t>2009-02-06</t>
         </is>
       </c>
     </row>
@@ -2668,97 +2735,97 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13" t="n">
         <v>39</v>
       </c>
       <c r="G13" t="n">
-        <v>0.22</v>
+        <v>0.204</v>
       </c>
       <c r="H13" t="n">
         <v>48.6</v>
       </c>
       <c r="I13" t="n">
-        <v>35.3</v>
+        <v>35.1</v>
       </c>
       <c r="J13" t="n">
         <v>81.90000000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>0.431</v>
+        <v>0.428</v>
       </c>
       <c r="L13" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="M13" t="n">
-        <v>17.4</v>
+        <v>17.2</v>
       </c>
       <c r="N13" t="n">
-        <v>0.336</v>
+        <v>0.329</v>
       </c>
       <c r="O13" t="n">
         <v>17.3</v>
       </c>
       <c r="P13" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.756</v>
+        <v>0.759</v>
       </c>
       <c r="R13" t="n">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="S13" t="n">
         <v>29</v>
       </c>
       <c r="T13" t="n">
-        <v>40.6</v>
+        <v>40.7</v>
       </c>
       <c r="U13" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V13" t="n">
         <v>14.9</v>
       </c>
       <c r="W13" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X13" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="Y13" t="n">
         <v>5.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AA13" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AB13" t="n">
-        <v>93.7</v>
+        <v>93</v>
       </c>
       <c r="AC13" t="n">
-        <v>-8.199999999999999</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="AD13" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AE13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF13" t="n">
         <v>28</v>
       </c>
       <c r="AG13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AH13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI13" t="n">
         <v>27</v>
@@ -2770,7 +2837,7 @@
         <v>30</v>
       </c>
       <c r="AL13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM13" t="n">
         <v>17</v>
@@ -2782,10 +2849,10 @@
         <v>27</v>
       </c>
       <c r="AP13" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AQ13" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AR13" t="n">
         <v>11</v>
@@ -2794,13 +2861,13 @@
         <v>24</v>
       </c>
       <c r="AT13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW13" t="n">
         <v>20</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-6-2008-09</t>
+          <t>2009-02-06</t>
         </is>
       </c>
     </row>
@@ -2850,25 +2917,25 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E14" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F14" t="n">
         <v>9</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
       </c>
       <c r="I14" t="n">
-        <v>40.4</v>
+        <v>40.3</v>
       </c>
       <c r="J14" t="n">
-        <v>84.3</v>
+        <v>84.2</v>
       </c>
       <c r="K14" t="n">
         <v>0.479</v>
@@ -2877,31 +2944,31 @@
         <v>7.1</v>
       </c>
       <c r="M14" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="N14" t="n">
-        <v>0.376</v>
+        <v>0.379</v>
       </c>
       <c r="O14" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="P14" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.769</v>
+        <v>0.77</v>
       </c>
       <c r="R14" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="S14" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T14" t="n">
-        <v>44</v>
+        <v>44.1</v>
       </c>
       <c r="U14" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="V14" t="n">
         <v>13.6</v>
@@ -2913,34 +2980,34 @@
         <v>5.3</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="AB14" t="n">
-        <v>109.1</v>
+        <v>108.9</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AE14" t="n">
         <v>2</v>
       </c>
       <c r="AF14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI14" t="n">
         <v>1</v>
@@ -2958,7 +3025,7 @@
         <v>13</v>
       </c>
       <c r="AN14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO14" t="n">
         <v>4</v>
@@ -2967,13 +3034,13 @@
         <v>5</v>
       </c>
       <c r="AQ14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR14" t="n">
         <v>4</v>
       </c>
       <c r="AS14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -2982,7 +3049,7 @@
         <v>2</v>
       </c>
       <c r="AV14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW14" t="n">
         <v>4</v>
@@ -2994,7 +3061,7 @@
         <v>12</v>
       </c>
       <c r="AZ14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BA14" t="n">
         <v>4</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-6-2008-09</t>
+          <t>2009-02-06</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
       </c>
       <c r="F15" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G15" t="n">
-        <v>0.265</v>
+        <v>0.271</v>
       </c>
       <c r="H15" t="n">
         <v>48.5</v>
@@ -3053,10 +3120,10 @@
         <v>77.09999999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>0.452</v>
+        <v>0.451</v>
       </c>
       <c r="L15" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="M15" t="n">
         <v>13.7</v>
@@ -3065,13 +3132,13 @@
         <v>0.34</v>
       </c>
       <c r="O15" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="P15" t="n">
-        <v>25.9</v>
+        <v>25.7</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.753</v>
+        <v>0.752</v>
       </c>
       <c r="R15" t="n">
         <v>10</v>
@@ -3080,13 +3147,13 @@
         <v>28.2</v>
       </c>
       <c r="T15" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="U15" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="V15" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W15" t="n">
         <v>7.7</v>
@@ -3101,16 +3168,16 @@
         <v>21.9</v>
       </c>
       <c r="AA15" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AB15" t="n">
-        <v>93.8</v>
+        <v>93.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.6</v>
+        <v>-6.3</v>
       </c>
       <c r="AD15" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
@@ -3122,7 +3189,7 @@
         <v>26</v>
       </c>
       <c r="AH15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI15" t="n">
         <v>29</v>
@@ -3131,7 +3198,7 @@
         <v>28</v>
       </c>
       <c r="AK15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL15" t="n">
         <v>27</v>
@@ -3140,19 +3207,19 @@
         <v>27</v>
       </c>
       <c r="AN15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO15" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ15" t="n">
         <v>24</v>
       </c>
       <c r="AR15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AS15" t="n">
         <v>28</v>
@@ -3173,10 +3240,10 @@
         <v>24</v>
       </c>
       <c r="AY15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ15" t="n">
         <v>19</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>20</v>
       </c>
       <c r="BA15" t="n">
         <v>9</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-6-2008-09</t>
+          <t>2009-02-06</t>
         </is>
       </c>
     </row>
@@ -3292,10 +3359,10 @@
         <v>0.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AE16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF16" t="n">
         <v>14</v>
@@ -3319,7 +3386,7 @@
         <v>12</v>
       </c>
       <c r="AM16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN16" t="n">
         <v>18</v>
@@ -3352,13 +3419,13 @@
         <v>5</v>
       </c>
       <c r="AX16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA16" t="n">
         <v>25</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-6-2008-09</t>
+          <t>2009-02-06</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E17" t="n">
         <v>24</v>
       </c>
       <c r="F17" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G17" t="n">
-        <v>0.471</v>
+        <v>0.462</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
@@ -3414,7 +3481,7 @@
         <v>36.3</v>
       </c>
       <c r="J17" t="n">
-        <v>81.2</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K17" t="n">
         <v>0.447</v>
@@ -3426,31 +3493,31 @@
         <v>16</v>
       </c>
       <c r="N17" t="n">
-        <v>0.35</v>
+        <v>0.351</v>
       </c>
       <c r="O17" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="P17" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.785</v>
+        <v>0.784</v>
       </c>
       <c r="R17" t="n">
         <v>12.1</v>
       </c>
       <c r="S17" t="n">
-        <v>29.4</v>
+        <v>29.2</v>
       </c>
       <c r="T17" t="n">
-        <v>41.5</v>
+        <v>41.3</v>
       </c>
       <c r="U17" t="n">
         <v>21.2</v>
       </c>
       <c r="V17" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W17" t="n">
         <v>7.1</v>
@@ -3462,31 +3529,31 @@
         <v>4.6</v>
       </c>
       <c r="Z17" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="AA17" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="AB17" t="n">
         <v>98.09999999999999</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
         <v>16</v>
       </c>
       <c r="AF17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG17" t="n">
         <v>17</v>
       </c>
       <c r="AH17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI17" t="n">
         <v>17</v>
@@ -3507,7 +3574,7 @@
         <v>21</v>
       </c>
       <c r="AO17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP17" t="n">
         <v>12</v>
@@ -3525,22 +3592,22 @@
         <v>15</v>
       </c>
       <c r="AU17" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AV17" t="n">
         <v>16</v>
       </c>
       <c r="AW17" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AX17" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AY17" t="n">
         <v>14</v>
       </c>
       <c r="AZ17" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA17" t="n">
         <v>6</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-6-2008-09</t>
+          <t>2009-02-06</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-3.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AE18" t="n">
         <v>24</v>
@@ -3674,28 +3741,28 @@
         <v>12</v>
       </c>
       <c r="AJ18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM18" t="n">
         <v>18</v>
       </c>
       <c r="AN18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO18" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP18" t="n">
         <v>17</v>
       </c>
-      <c r="AP18" t="n">
-        <v>16</v>
-      </c>
       <c r="AQ18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR18" t="n">
         <v>3</v>
@@ -3722,13 +3789,13 @@
         <v>30</v>
       </c>
       <c r="AZ18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA18" t="n">
         <v>22</v>
       </c>
       <c r="BB18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC18" t="n">
         <v>24</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-6-2008-09</t>
+          <t>2009-02-06</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-2.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AE19" t="n">
         <v>18</v>
@@ -3859,7 +3926,7 @@
         <v>15</v>
       </c>
       <c r="AK19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL19" t="n">
         <v>5</v>
@@ -3868,34 +3935,34 @@
         <v>6</v>
       </c>
       <c r="AN19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR19" t="n">
         <v>14</v>
       </c>
       <c r="AS19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU19" t="n">
         <v>29</v>
       </c>
       <c r="AV19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX19" t="n">
         <v>21</v>
@@ -3913,7 +3980,7 @@
         <v>17</v>
       </c>
       <c r="BC19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-6-2008-09</t>
+          <t>2009-02-06</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E20" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F20" t="n">
         <v>18</v>
       </c>
       <c r="G20" t="n">
-        <v>0.617</v>
+        <v>0.609</v>
       </c>
       <c r="H20" t="n">
         <v>48</v>
@@ -3966,22 +4033,22 @@
         <v>0.456</v>
       </c>
       <c r="L20" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="M20" t="n">
-        <v>19.7</v>
+        <v>19.4</v>
       </c>
       <c r="N20" t="n">
-        <v>0.391</v>
+        <v>0.388</v>
       </c>
       <c r="O20" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="P20" t="n">
-        <v>22.6</v>
+        <v>22.8</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="R20" t="n">
         <v>9.6</v>
@@ -3993,10 +4060,10 @@
         <v>38.5</v>
       </c>
       <c r="U20" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="V20" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="W20" t="n">
         <v>7.6</v>
@@ -4008,22 +4075,22 @@
         <v>3.6</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AA20" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AB20" t="n">
-        <v>95.90000000000001</v>
+        <v>95.8</v>
       </c>
       <c r="AC20" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AE20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF20" t="n">
         <v>7</v>
@@ -4047,16 +4114,16 @@
         <v>8</v>
       </c>
       <c r="AM20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN20" t="n">
         <v>4</v>
       </c>
       <c r="AO20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP20" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AQ20" t="n">
         <v>3</v>
@@ -4074,7 +4141,7 @@
         <v>27</v>
       </c>
       <c r="AV20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW20" t="n">
         <v>9</v>
@@ -4086,10 +4153,10 @@
         <v>1</v>
       </c>
       <c r="AZ20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB20" t="n">
         <v>25</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-6-2008-09</t>
+          <t>2009-02-06</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E21" t="n">
         <v>21</v>
       </c>
       <c r="F21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G21" t="n">
-        <v>0.429</v>
+        <v>0.438</v>
       </c>
       <c r="H21" t="n">
         <v>48.1</v>
@@ -4142,10 +4209,10 @@
         <v>37.9</v>
       </c>
       <c r="J21" t="n">
-        <v>86.09999999999999</v>
+        <v>86</v>
       </c>
       <c r="K21" t="n">
-        <v>0.44</v>
+        <v>0.441</v>
       </c>
       <c r="L21" t="n">
         <v>10.3</v>
@@ -4154,19 +4221,19 @@
         <v>28.8</v>
       </c>
       <c r="N21" t="n">
-        <v>0.358</v>
+        <v>0.357</v>
       </c>
       <c r="O21" t="n">
-        <v>18.1</v>
+        <v>18.3</v>
       </c>
       <c r="P21" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.8</v>
+        <v>0.802</v>
       </c>
       <c r="R21" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="S21" t="n">
         <v>31.7</v>
@@ -4175,7 +4242,7 @@
         <v>42.6</v>
       </c>
       <c r="U21" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="V21" t="n">
         <v>15</v>
@@ -4187,7 +4254,7 @@
         <v>2.4</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z21" t="n">
         <v>20.3</v>
@@ -4196,34 +4263,34 @@
         <v>19.1</v>
       </c>
       <c r="AB21" t="n">
-        <v>104.2</v>
+        <v>104.3</v>
       </c>
       <c r="AC21" t="n">
-        <v>-2.4</v>
+        <v>-2.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AE21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH21" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI21" t="n">
         <v>7</v>
       </c>
       <c r="AJ21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL21" t="n">
         <v>2</v>
@@ -4232,19 +4299,19 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP21" t="n">
         <v>24</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>26</v>
       </c>
       <c r="AQ21" t="n">
         <v>7</v>
       </c>
       <c r="AR21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS21" t="n">
         <v>8</v>
@@ -4256,7 +4323,7 @@
         <v>9</v>
       </c>
       <c r="AV21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW21" t="n">
         <v>14</v>
@@ -4268,7 +4335,7 @@
         <v>21</v>
       </c>
       <c r="AZ21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA21" t="n">
         <v>29</v>
@@ -4277,7 +4344,7 @@
         <v>6</v>
       </c>
       <c r="BC21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-6-2008-09</t>
+          <t>2009-02-06</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F22" t="n">
         <v>38</v>
       </c>
       <c r="G22" t="n">
-        <v>0.24</v>
+        <v>0.224</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
@@ -4324,19 +4391,19 @@
         <v>36.6</v>
       </c>
       <c r="J22" t="n">
-        <v>81.3</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K22" t="n">
-        <v>0.45</v>
+        <v>0.449</v>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="M22" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="N22" t="n">
-        <v>0.373</v>
+        <v>0.374</v>
       </c>
       <c r="O22" t="n">
         <v>19.9</v>
@@ -4345,7 +4412,7 @@
         <v>25.9</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.77</v>
+        <v>0.769</v>
       </c>
       <c r="R22" t="n">
         <v>12.1</v>
@@ -4372,19 +4439,19 @@
         <v>5.3</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AA22" t="n">
         <v>21</v>
       </c>
       <c r="AB22" t="n">
-        <v>97.2</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC22" t="n">
-        <v>-5.8</v>
+        <v>-6.1</v>
       </c>
       <c r="AD22" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AE22" t="n">
         <v>27</v>
@@ -4402,10 +4469,10 @@
         <v>15</v>
       </c>
       <c r="AJ22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL22" t="n">
         <v>30</v>
@@ -4414,16 +4481,16 @@
         <v>30</v>
       </c>
       <c r="AN22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR22" t="n">
         <v>5</v>
@@ -4432,7 +4499,7 @@
         <v>11</v>
       </c>
       <c r="AT22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU22" t="n">
         <v>23</v>
@@ -4453,7 +4520,7 @@
         <v>15</v>
       </c>
       <c r="BA22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB22" t="n">
         <v>22</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-6-2008-09</t>
+          <t>2009-02-06</t>
         </is>
       </c>
     </row>
@@ -4488,22 +4555,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E23" t="n">
         <v>37</v>
       </c>
       <c r="F23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G23" t="n">
-        <v>0.755</v>
+        <v>0.771</v>
       </c>
       <c r="H23" t="n">
         <v>48.1</v>
       </c>
       <c r="I23" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="J23" t="n">
         <v>78.8</v>
@@ -4515,58 +4582,58 @@
         <v>10.5</v>
       </c>
       <c r="M23" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="N23" t="n">
-        <v>0.4</v>
+        <v>0.402</v>
       </c>
       <c r="O23" t="n">
         <v>19.4</v>
       </c>
       <c r="P23" t="n">
-        <v>26.9</v>
+        <v>26.8</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.722</v>
+        <v>0.724</v>
       </c>
       <c r="R23" t="n">
         <v>10</v>
       </c>
       <c r="S23" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="T23" t="n">
-        <v>43.2</v>
+        <v>43.1</v>
       </c>
       <c r="U23" t="n">
         <v>19.5</v>
       </c>
       <c r="V23" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="W23" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X23" t="n">
         <v>5.3</v>
       </c>
       <c r="Y23" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Z23" t="n">
         <v>20.1</v>
       </c>
       <c r="AA23" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AB23" t="n">
         <v>102.9</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.300000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AE23" t="n">
         <v>4</v>
@@ -4578,7 +4645,7 @@
         <v>4</v>
       </c>
       <c r="AH23" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI23" t="n">
         <v>16</v>
@@ -4599,7 +4666,7 @@
         <v>1</v>
       </c>
       <c r="AO23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP23" t="n">
         <v>6</v>
@@ -4614,7 +4681,7 @@
         <v>1</v>
       </c>
       <c r="AT23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU23" t="n">
         <v>28</v>
@@ -4623,13 +4690,13 @@
         <v>13</v>
       </c>
       <c r="AW23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AX23" t="n">
         <v>10</v>
       </c>
       <c r="AY23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ23" t="n">
         <v>5</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-6-2008-09</t>
+          <t>2009-02-06</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>0.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AE24" t="n">
         <v>16</v>
@@ -4760,7 +4827,7 @@
         <v>16</v>
       </c>
       <c r="AH24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI24" t="n">
         <v>14</v>
@@ -4781,10 +4848,10 @@
         <v>29</v>
       </c>
       <c r="AO24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ24" t="n">
         <v>26</v>
@@ -4796,7 +4863,7 @@
         <v>16</v>
       </c>
       <c r="AT24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU24" t="n">
         <v>14</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-6-2008-09</t>
+          <t>2009-02-06</t>
         </is>
       </c>
     </row>
@@ -4852,46 +4919,46 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F25" t="n">
         <v>21</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.553</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
       </c>
       <c r="I25" t="n">
-        <v>38.7</v>
+        <v>38.6</v>
       </c>
       <c r="J25" t="n">
-        <v>78.09999999999999</v>
+        <v>77.8</v>
       </c>
       <c r="K25" t="n">
-        <v>0.496</v>
+        <v>0.495</v>
       </c>
       <c r="L25" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="M25" t="n">
-        <v>16.8</v>
+        <v>17.1</v>
       </c>
       <c r="N25" t="n">
-        <v>0.385</v>
+        <v>0.384</v>
       </c>
       <c r="O25" t="n">
         <v>21</v>
       </c>
       <c r="P25" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.762</v>
+        <v>0.763</v>
       </c>
       <c r="R25" t="n">
         <v>9.699999999999999</v>
@@ -4906,7 +4973,7 @@
         <v>21.8</v>
       </c>
       <c r="V25" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="W25" t="n">
         <v>6.4</v>
@@ -4915,22 +4982,22 @@
         <v>4.9</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AA25" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="AB25" t="n">
-        <v>104.9</v>
+        <v>104.7</v>
       </c>
       <c r="AC25" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="AD25" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AE25" t="n">
         <v>13</v>
@@ -4957,7 +5024,7 @@
         <v>17</v>
       </c>
       <c r="AM25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AN25" t="n">
         <v>5</v>
@@ -4975,7 +5042,7 @@
         <v>27</v>
       </c>
       <c r="AS25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT25" t="n">
         <v>14</v>
@@ -4990,10 +5057,10 @@
         <v>28</v>
       </c>
       <c r="AX25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ25" t="n">
         <v>12</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-6-2008-09</t>
+          <t>2009-02-06</t>
         </is>
       </c>
     </row>
@@ -5049,43 +5116,43 @@
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="J26" t="n">
-        <v>78.40000000000001</v>
+        <v>78.5</v>
       </c>
       <c r="K26" t="n">
-        <v>0.462</v>
+        <v>0.46</v>
       </c>
       <c r="L26" t="n">
         <v>7.3</v>
       </c>
       <c r="M26" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="N26" t="n">
-        <v>0.379</v>
+        <v>0.381</v>
       </c>
       <c r="O26" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="P26" t="n">
-        <v>25.3</v>
+        <v>25.1</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.765</v>
+        <v>0.763</v>
       </c>
       <c r="R26" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="S26" t="n">
         <v>27.8</v>
       </c>
       <c r="T26" t="n">
-        <v>40.8</v>
+        <v>40.9</v>
       </c>
       <c r="U26" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="V26" t="n">
         <v>12.9</v>
@@ -5094,25 +5161,25 @@
         <v>6.9</v>
       </c>
       <c r="X26" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y26" t="n">
         <v>3.7</v>
       </c>
       <c r="Z26" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="AA26" t="n">
         <v>21.6</v>
       </c>
       <c r="AB26" t="n">
-        <v>99</v>
+        <v>98.7</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AE26" t="n">
         <v>7</v>
@@ -5127,10 +5194,10 @@
         <v>12</v>
       </c>
       <c r="AI26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK26" t="n">
         <v>9</v>
@@ -5142,7 +5209,7 @@
         <v>12</v>
       </c>
       <c r="AN26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO26" t="n">
         <v>14</v>
@@ -5163,28 +5230,28 @@
         <v>18</v>
       </c>
       <c r="AU26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV26" t="n">
         <v>6</v>
       </c>
       <c r="AW26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA26" t="n">
         <v>11</v>
       </c>
       <c r="BB26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC26" t="n">
         <v>6</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-6-2008-09</t>
+          <t>2009-02-06</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E27" t="n">
         <v>11</v>
       </c>
       <c r="F27" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G27" t="n">
-        <v>0.216</v>
+        <v>0.22</v>
       </c>
       <c r="H27" t="n">
         <v>48.7</v>
@@ -5234,7 +5301,7 @@
         <v>36</v>
       </c>
       <c r="J27" t="n">
-        <v>81.40000000000001</v>
+        <v>81.3</v>
       </c>
       <c r="K27" t="n">
         <v>0.443</v>
@@ -5243,37 +5310,37 @@
         <v>6.4</v>
       </c>
       <c r="M27" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="N27" t="n">
-        <v>0.349</v>
+        <v>0.35</v>
       </c>
       <c r="O27" t="n">
-        <v>20.7</v>
+        <v>20.5</v>
       </c>
       <c r="P27" t="n">
-        <v>25.7</v>
+        <v>25.4</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.805</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="R27" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="S27" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="T27" t="n">
-        <v>39</v>
+        <v>38.9</v>
       </c>
       <c r="U27" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="V27" t="n">
         <v>15.8</v>
       </c>
       <c r="W27" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="X27" t="n">
         <v>3.9</v>
@@ -5282,28 +5349,28 @@
         <v>5.2</v>
       </c>
       <c r="Z27" t="n">
-        <v>24</v>
+        <v>23.9</v>
       </c>
       <c r="AA27" t="n">
         <v>21.9</v>
       </c>
       <c r="AB27" t="n">
-        <v>99.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="AC27" t="n">
-        <v>-9.699999999999999</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="AD27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE27" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF27" t="n">
         <v>28</v>
       </c>
-      <c r="AF27" t="n">
-        <v>29</v>
-      </c>
       <c r="AG27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AH27" t="n">
         <v>3</v>
@@ -5312,7 +5379,7 @@
         <v>22</v>
       </c>
       <c r="AJ27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK27" t="n">
         <v>27</v>
@@ -5333,7 +5400,7 @@
         <v>11</v>
       </c>
       <c r="AQ27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR27" t="n">
         <v>23</v>
@@ -5342,22 +5409,22 @@
         <v>26</v>
       </c>
       <c r="AT27" t="n">
+        <v>28</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>28</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AX27" t="n">
         <v>27</v>
       </c>
-      <c r="AU27" t="n">
-        <v>24</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>27</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>24</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>26</v>
-      </c>
       <c r="AY27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ27" t="n">
         <v>30</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-6-2008-09</t>
+          <t>2009-02-06</t>
         </is>
       </c>
     </row>
@@ -5476,10 +5543,10 @@
         <v>3.1</v>
       </c>
       <c r="AD28" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AE28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF28" t="n">
         <v>5</v>
@@ -5506,7 +5573,7 @@
         <v>7</v>
       </c>
       <c r="AN28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO28" t="n">
         <v>30</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-6-2008-09</t>
+          <t>2009-02-06</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E29" t="n">
         <v>19</v>
       </c>
       <c r="F29" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G29" t="n">
-        <v>0.365</v>
+        <v>0.373</v>
       </c>
       <c r="H29" t="n">
         <v>48.3</v>
@@ -5598,70 +5665,70 @@
         <v>36.1</v>
       </c>
       <c r="J29" t="n">
-        <v>78.5</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="K29" t="n">
-        <v>0.46</v>
+        <v>0.459</v>
       </c>
       <c r="L29" t="n">
         <v>6.1</v>
       </c>
       <c r="M29" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="N29" t="n">
-        <v>0.377</v>
+        <v>0.375</v>
       </c>
       <c r="O29" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="P29" t="n">
         <v>23.1</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.824</v>
+        <v>0.825</v>
       </c>
       <c r="R29" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="S29" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="T29" t="n">
-        <v>38.8</v>
+        <v>38.9</v>
       </c>
       <c r="U29" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="V29" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="W29" t="n">
         <v>6.3</v>
       </c>
       <c r="X29" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y29" t="n">
         <v>4.4</v>
       </c>
       <c r="Z29" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AA29" t="n">
         <v>20.8</v>
       </c>
       <c r="AB29" t="n">
-        <v>97.3</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="AC29" t="n">
-        <v>-3</v>
+        <v>-2.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF29" t="n">
         <v>24</v>
@@ -5670,13 +5737,13 @@
         <v>23</v>
       </c>
       <c r="AH29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ29" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AK29" t="n">
         <v>10</v>
@@ -5685,13 +5752,13 @@
         <v>19</v>
       </c>
       <c r="AM29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO29" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AP29" t="n">
         <v>23</v>
@@ -5706,7 +5773,7 @@
         <v>15</v>
       </c>
       <c r="AT29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU29" t="n">
         <v>8</v>
@@ -5718,7 +5785,7 @@
         <v>29</v>
       </c>
       <c r="AX29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY29" t="n">
         <v>11</v>
@@ -5727,7 +5794,7 @@
         <v>4</v>
       </c>
       <c r="BA29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BB29" t="n">
         <v>21</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-6-2008-09</t>
+          <t>2009-02-06</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E30" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F30" t="n">
         <v>22</v>
       </c>
       <c r="G30" t="n">
-        <v>0.569</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H30" t="n">
         <v>48.4</v>
@@ -5780,10 +5847,10 @@
         <v>38.1</v>
       </c>
       <c r="J30" t="n">
-        <v>79.8</v>
+        <v>80</v>
       </c>
       <c r="K30" t="n">
-        <v>0.477</v>
+        <v>0.476</v>
       </c>
       <c r="L30" t="n">
         <v>4.8</v>
@@ -5792,37 +5859,37 @@
         <v>14</v>
       </c>
       <c r="N30" t="n">
-        <v>0.341</v>
+        <v>0.342</v>
       </c>
       <c r="O30" t="n">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="P30" t="n">
-        <v>28</v>
+        <v>27.8</v>
       </c>
       <c r="Q30" t="n">
         <v>0.767</v>
       </c>
       <c r="R30" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S30" t="n">
-        <v>29.3</v>
+        <v>29.1</v>
       </c>
       <c r="T30" t="n">
-        <v>41.2</v>
+        <v>41.1</v>
       </c>
       <c r="U30" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="V30" t="n">
         <v>15.1</v>
       </c>
       <c r="W30" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X30" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y30" t="n">
         <v>4.8</v>
@@ -5831,19 +5898,19 @@
         <v>22.4</v>
       </c>
       <c r="AA30" t="n">
-        <v>23.7</v>
+        <v>23.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>102.5</v>
+        <v>102.3</v>
       </c>
       <c r="AC30" t="n">
         <v>3</v>
       </c>
       <c r="AD30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF30" t="n">
         <v>14</v>
@@ -5858,7 +5925,7 @@
         <v>5</v>
       </c>
       <c r="AJ30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK30" t="n">
         <v>4</v>
@@ -5882,7 +5949,7 @@
         <v>16</v>
       </c>
       <c r="AR30" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AS30" t="n">
         <v>23</v>
@@ -5906,10 +5973,10 @@
         <v>15</v>
       </c>
       <c r="AZ30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BB30" t="n">
         <v>8</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-6-2008-09</t>
+          <t>2009-02-06</t>
         </is>
       </c>
     </row>
@@ -5944,22 +6011,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E31" t="n">
         <v>10</v>
       </c>
       <c r="F31" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2</v>
+        <v>0.204</v>
       </c>
       <c r="H31" t="n">
         <v>48.1</v>
       </c>
       <c r="I31" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="J31" t="n">
         <v>81.59999999999999</v>
@@ -5968,22 +6035,22 @@
         <v>0.443</v>
       </c>
       <c r="L31" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="M31" t="n">
         <v>15.7</v>
       </c>
       <c r="N31" t="n">
-        <v>0.321</v>
+        <v>0.319</v>
       </c>
       <c r="O31" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="P31" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.759</v>
+        <v>0.756</v>
       </c>
       <c r="R31" t="n">
         <v>11.9</v>
@@ -5995,7 +6062,7 @@
         <v>39.8</v>
       </c>
       <c r="U31" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="V31" t="n">
         <v>13.8</v>
@@ -6004,7 +6071,7 @@
         <v>7.5</v>
       </c>
       <c r="X31" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Y31" t="n">
         <v>5.1</v>
@@ -6016,34 +6083,34 @@
         <v>19.2</v>
       </c>
       <c r="AB31" t="n">
-        <v>94.2</v>
+        <v>94</v>
       </c>
       <c r="AC31" t="n">
-        <v>-7.9</v>
+        <v>-7.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AE31" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF31" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG31" t="n">
         <v>29</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>30</v>
       </c>
       <c r="AH31" t="n">
         <v>29</v>
       </c>
       <c r="AI31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ31" t="n">
         <v>9</v>
       </c>
       <c r="AK31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL31" t="n">
         <v>25</v>
@@ -6061,10 +6128,10 @@
         <v>28</v>
       </c>
       <c r="AQ31" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AR31" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AS31" t="n">
         <v>29</v>
@@ -6082,13 +6149,13 @@
         <v>12</v>
       </c>
       <c r="AX31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY31" t="n">
         <v>18</v>
       </c>
       <c r="AZ31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA31" t="n">
         <v>28</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-6-2008-09</t>
+          <t>2009-02-06</t>
         </is>
       </c>
     </row>
